--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -513,6 +513,106 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -555,12 +655,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AC2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n"/>
+      <c r="AD2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -603,12 +803,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Y3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Z3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J3" s="5" t="n"/>
+      <c r="AD3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -651,12 +951,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AC4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -699,12 +1099,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AC5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J5" s="5" t="n"/>
+      <c r="AD5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -747,12 +1247,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J6" s="5" t="n"/>
+      <c r="AD6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -795,12 +1395,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AC7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J7" s="5" t="n"/>
+      <c r="AD7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -843,12 +1543,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="T8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="U8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="V8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Y8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Z8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AC8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J8" s="5" t="n"/>
+      <c r="AD8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -891,12 +1691,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="U9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="V9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="W9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Y9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="Z9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AC9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="J9" s="5" t="n"/>
+      <c r="AD9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:CX9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -613,6 +613,366 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="CC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="CG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="CK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="CO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="CS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -755,12 +1115,372 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AC2" s="5" t="inlineStr">
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CW2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD2" s="5" t="n"/>
+      <c r="CX2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -903,12 +1623,372 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AC3" s="5" t="inlineStr">
+      <c r="AC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CW3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD3" s="5" t="n"/>
+      <c r="CX3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -1051,12 +2131,372 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AC4" s="5" t="inlineStr">
+      <c r="AC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CW4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD4" s="5" t="n"/>
+      <c r="CX4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -1199,12 +2639,372 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AC5" s="5" t="inlineStr">
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CW5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD5" s="5" t="n"/>
+      <c r="CX5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -1347,12 +3147,372 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AC6" s="5" t="inlineStr">
+      <c r="AC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CW6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD6" s="5" t="n"/>
+      <c r="CX6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -1495,12 +3655,372 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AC7" s="5" t="inlineStr">
+      <c r="AC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CW7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD7" s="5" t="n"/>
+      <c r="CX7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -1643,12 +4163,372 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AC8" s="5" t="inlineStr">
+      <c r="AC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CW8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD8" s="5" t="n"/>
+      <c r="CX8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -1791,12 +4671,372 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AC9" s="5" t="inlineStr">
+      <c r="AC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CW9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AD9" s="5" t="n"/>
+      <c r="CX9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1:ED9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -973,6 +973,166 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="CW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="CX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="CY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="CZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="DW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="DX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="DY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="DZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -1475,12 +1635,172 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="CW2" s="5" t="inlineStr">
+      <c r="CW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EC2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX2" s="5" t="n"/>
+      <c r="ED2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -1983,12 +2303,172 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="CW3" s="5" t="inlineStr">
+      <c r="CW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EC3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX3" s="5" t="n"/>
+      <c r="ED3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -2491,12 +2971,172 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="CW4" s="5" t="inlineStr">
+      <c r="CW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EC4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX4" s="5" t="n"/>
+      <c r="ED4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -2999,12 +3639,172 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="CW5" s="5" t="inlineStr">
+      <c r="CW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EC5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX5" s="5" t="n"/>
+      <c r="ED5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -3507,12 +4307,172 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="CW6" s="5" t="inlineStr">
+      <c r="CW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EC6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX6" s="5" t="n"/>
+      <c r="ED6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -4015,12 +4975,172 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="CW7" s="5" t="inlineStr">
+      <c r="CW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EC7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX7" s="5" t="n"/>
+      <c r="ED7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -4523,12 +5643,172 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="CW8" s="5" t="inlineStr">
+      <c r="CW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="CZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="DX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EC8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX8" s="5" t="n"/>
+      <c r="ED8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -5031,12 +6311,172 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="CW9" s="5" t="inlineStr">
+      <c r="CW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="CZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="DZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EC9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="CX9" s="5" t="n"/>
+      <c r="ED9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ED9"/>
+  <dimension ref="A1:EX9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1133,6 +1133,106 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="EC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ED1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="EG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="EH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="EK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="EL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="EO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="EP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ER1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ES1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ET1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -1795,12 +1895,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EC2" s="5" t="inlineStr">
+      <c r="EC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ED2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ER2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ES2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ET2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EW2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED2" s="5" t="n"/>
+      <c r="EX2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -2463,12 +2663,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EC3" s="5" t="inlineStr">
+      <c r="EC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ED3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ER3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ES3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ET3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EW3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED3" s="5" t="n"/>
+      <c r="EX3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -3131,12 +3431,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EC4" s="5" t="inlineStr">
+      <c r="EC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ED4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ER4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ES4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ET4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EW4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED4" s="5" t="n"/>
+      <c r="EX4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -3799,12 +4199,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EC5" s="5" t="inlineStr">
+      <c r="EC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ED5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ER5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ES5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ET5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EW5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED5" s="5" t="n"/>
+      <c r="EX5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -4467,12 +4967,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EC6" s="5" t="inlineStr">
+      <c r="EC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ED6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ER6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ES6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ET6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EW6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED6" s="5" t="n"/>
+      <c r="EX6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -5135,12 +5735,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EC7" s="5" t="inlineStr">
+      <c r="EC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ED7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ER7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ES7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ET7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EW7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED7" s="5" t="n"/>
+      <c r="EX7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -5803,12 +6503,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EC8" s="5" t="inlineStr">
+      <c r="EC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ED8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ER8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ES8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ET8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EW8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED8" s="5" t="n"/>
+      <c r="EX8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -6471,12 +7271,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EC9" s="5" t="inlineStr">
+      <c r="EC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ED9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ER9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ES9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ET9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EW9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ED9" s="5" t="n"/>
+      <c r="EX9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:EX9"/>
+  <dimension ref="A1:FB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1233,6 +1233,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="EW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="EX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="EY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="EZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -1995,12 +2015,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EW2" s="5" t="inlineStr">
+      <c r="EW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX2" s="5" t="n"/>
+      <c r="FB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -2763,12 +2803,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EW3" s="5" t="inlineStr">
+      <c r="EW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX3" s="5" t="n"/>
+      <c r="FB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -3531,12 +3591,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EW4" s="5" t="inlineStr">
+      <c r="EW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX4" s="5" t="n"/>
+      <c r="FB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -4299,12 +4379,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EW5" s="5" t="inlineStr">
+      <c r="EW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX5" s="5" t="n"/>
+      <c r="FB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -5067,12 +5167,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="EW6" s="5" t="inlineStr">
+      <c r="EW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX6" s="5" t="n"/>
+      <c r="FB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -5835,12 +5955,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EW7" s="5" t="inlineStr">
+      <c r="EW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX7" s="5" t="n"/>
+      <c r="FB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -6603,12 +6743,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EW8" s="5" t="inlineStr">
+      <c r="EW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="EZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX8" s="5" t="n"/>
+      <c r="FB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -7371,12 +7531,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="EW9" s="5" t="inlineStr">
+      <c r="EW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="EZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="EX9" s="5" t="n"/>
+      <c r="FB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FB9"/>
+  <dimension ref="A1:HZ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1253,6 +1253,386 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="FA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="FW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="FX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="FY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="FZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="GW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="GX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="GY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="GZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="HU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="HW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="HX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -2035,12 +2415,392 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="FA2" s="5" t="inlineStr">
+      <c r="FA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB2" s="5" t="n"/>
+      <c r="HZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -2823,12 +3583,392 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="FA3" s="5" t="inlineStr">
+      <c r="FA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB3" s="5" t="n"/>
+      <c r="HZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -3611,12 +4751,392 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="FA4" s="5" t="inlineStr">
+      <c r="FA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB4" s="5" t="n"/>
+      <c r="HZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -4399,12 +5919,392 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="FA5" s="5" t="inlineStr">
+      <c r="FA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB5" s="5" t="n"/>
+      <c r="HZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -5187,12 +7087,392 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="FA6" s="5" t="inlineStr">
+      <c r="FA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB6" s="5" t="n"/>
+      <c r="HZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -5975,12 +8255,392 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="FA7" s="5" t="inlineStr">
+      <c r="FA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB7" s="5" t="n"/>
+      <c r="HZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -6763,12 +9423,392 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="FA8" s="5" t="inlineStr">
+      <c r="FA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="FX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="GZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB8" s="5" t="n"/>
+      <c r="HZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -7551,12 +10591,392 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="FA9" s="5" t="inlineStr">
+      <c r="FA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="FZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="GZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="FB9" s="5" t="n"/>
+      <c r="HZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ9"/>
+  <dimension ref="A1:IL9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1633,6 +1633,66 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="HY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="HZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="IC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ID1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="IG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="IH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="II1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -2795,12 +2855,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="HY2" s="5" t="inlineStr">
+      <c r="HY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ID2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IK2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ2" s="5" t="n"/>
+      <c r="IL2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -3963,12 +4083,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="HY3" s="5" t="inlineStr">
+      <c r="HY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ID3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="II3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IK3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ3" s="5" t="n"/>
+      <c r="IL3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -5131,12 +5311,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="HY4" s="5" t="inlineStr">
+      <c r="HY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ID4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IK4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ4" s="5" t="n"/>
+      <c r="IL4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -6299,12 +6539,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="HY5" s="5" t="inlineStr">
+      <c r="HY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ID5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IK5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ5" s="5" t="n"/>
+      <c r="IL5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -7467,12 +7767,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="HY6" s="5" t="inlineStr">
+      <c r="HY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="HZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ID6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IK6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ6" s="5" t="n"/>
+      <c r="IL6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -8635,12 +8995,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="HY7" s="5" t="inlineStr">
+      <c r="HY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ID7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IK7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ7" s="5" t="n"/>
+      <c r="IL7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -9803,12 +10223,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="HY8" s="5" t="inlineStr">
+      <c r="HY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ID8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IK8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ8" s="5" t="n"/>
+      <c r="IL8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -10971,12 +11451,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="HY9" s="5" t="inlineStr">
+      <c r="HY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="HZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ID9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="II9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IK9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="HZ9" s="5" t="n"/>
+      <c r="IL9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL9"/>
+  <dimension ref="A1:JB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1693,6 +1693,86 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="IK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="IL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="IO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="IP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="IS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="IT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="IW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="IX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="IY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="IZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -2915,12 +2995,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="IK2" s="5" t="inlineStr">
+      <c r="IK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL2" s="5" t="n"/>
+      <c r="JB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -4143,12 +4303,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="IK3" s="5" t="inlineStr">
+      <c r="IK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL3" s="5" t="n"/>
+      <c r="JB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -5371,12 +5611,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="IK4" s="5" t="inlineStr">
+      <c r="IK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL4" s="5" t="n"/>
+      <c r="JB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -6599,12 +6919,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="IK5" s="5" t="inlineStr">
+      <c r="IK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL5" s="5" t="n"/>
+      <c r="JB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -7827,12 +8227,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="IK6" s="5" t="inlineStr">
+      <c r="IK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL6" s="5" t="n"/>
+      <c r="JB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -9055,12 +9535,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="IK7" s="5" t="inlineStr">
+      <c r="IK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL7" s="5" t="n"/>
+      <c r="JB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -10283,12 +10843,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="IK8" s="5" t="inlineStr">
+      <c r="IK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="IZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL8" s="5" t="n"/>
+      <c r="JB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -11511,12 +12151,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="IK9" s="5" t="inlineStr">
+      <c r="IK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="IZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="IL9" s="5" t="n"/>
+      <c r="JB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JB9"/>
+  <dimension ref="A1:JV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1773,6 +1773,106 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="JA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="JE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="JI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="JM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="JQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -3075,12 +3175,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JA2" s="5" t="inlineStr">
+      <c r="JA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB2" s="5" t="n"/>
+      <c r="JV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -4383,12 +4583,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JA3" s="5" t="inlineStr">
+      <c r="JA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB3" s="5" t="n"/>
+      <c r="JV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -5691,12 +5991,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JA4" s="5" t="inlineStr">
+      <c r="JA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB4" s="5" t="n"/>
+      <c r="JV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -6999,12 +7399,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JA5" s="5" t="inlineStr">
+      <c r="JA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB5" s="5" t="n"/>
+      <c r="JV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -8307,12 +8807,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JA6" s="5" t="inlineStr">
+      <c r="JA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB6" s="5" t="n"/>
+      <c r="JV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -9615,12 +10215,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JA7" s="5" t="inlineStr">
+      <c r="JA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB7" s="5" t="n"/>
+      <c r="JV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -10923,12 +11623,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JA8" s="5" t="inlineStr">
+      <c r="JA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB8" s="5" t="n"/>
+      <c r="JV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -12231,12 +13031,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JA9" s="5" t="inlineStr">
+      <c r="JA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JB9" s="5" t="n"/>
+      <c r="JV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV9"/>
+  <dimension ref="A1:JZ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1873,6 +1873,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="JU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="JW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="JX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -3275,12 +3295,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JU2" s="5" t="inlineStr">
+      <c r="JU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV2" s="5" t="n"/>
+      <c r="JZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -4683,12 +4723,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JU3" s="5" t="inlineStr">
+      <c r="JU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV3" s="5" t="n"/>
+      <c r="JZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -6091,12 +6151,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JU4" s="5" t="inlineStr">
+      <c r="JU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV4" s="5" t="n"/>
+      <c r="JZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -7499,12 +7579,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JU5" s="5" t="inlineStr">
+      <c r="JU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV5" s="5" t="n"/>
+      <c r="JZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -8907,12 +9007,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JU6" s="5" t="inlineStr">
+      <c r="JU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV6" s="5" t="n"/>
+      <c r="JZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -10315,12 +10435,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JU7" s="5" t="inlineStr">
+      <c r="JU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV7" s="5" t="n"/>
+      <c r="JZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -11723,12 +11863,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JU8" s="5" t="inlineStr">
+      <c r="JU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV8" s="5" t="n"/>
+      <c r="JZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -13131,12 +13291,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JU9" s="5" t="inlineStr">
+      <c r="JU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JV9" s="5" t="n"/>
+      <c r="JZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JZ9"/>
+  <dimension ref="A1:LV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -1893,6 +1893,246 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="JY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="JZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="KW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="KX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="KY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="KZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -3315,12 +3555,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JY2" s="5" t="inlineStr">
+      <c r="JY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ2" s="5" t="n"/>
+      <c r="LV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -4743,12 +5223,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JY3" s="5" t="inlineStr">
+      <c r="JY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ3" s="5" t="n"/>
+      <c r="LV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -6171,12 +6891,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JY4" s="5" t="inlineStr">
+      <c r="JY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ4" s="5" t="n"/>
+      <c r="LV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -7599,12 +8559,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JY5" s="5" t="inlineStr">
+      <c r="JY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ5" s="5" t="n"/>
+      <c r="LV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -9027,12 +10227,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="JY6" s="5" t="inlineStr">
+      <c r="JY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="JZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ6" s="5" t="n"/>
+      <c r="LV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -10455,12 +11895,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JY7" s="5" t="inlineStr">
+      <c r="JY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ7" s="5" t="n"/>
+      <c r="LV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -11883,12 +13563,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JY8" s="5" t="inlineStr">
+      <c r="JY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="KZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ8" s="5" t="n"/>
+      <c r="LV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -13311,12 +15231,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="JY9" s="5" t="inlineStr">
+      <c r="JY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="JZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="KZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="JZ9" s="5" t="n"/>
+      <c r="LV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LV9"/>
+  <dimension ref="A1:SH9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -2133,6 +2133,846 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="LU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="LW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="LX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="LY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="LZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="MD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ME1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="MH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ML1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="MP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="MT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="MW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="MX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="MY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="MZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ND1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="NH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="NL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="NP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="NT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="NW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="NX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="NY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="NZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ON1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="OW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="OX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="OY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="OZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="PW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="PX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="PY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="PZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="QW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="QX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="QY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="QZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="RW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="RX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="RY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="RZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="SA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="SB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="SC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="SD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="SE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="SF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -3795,12 +4635,852 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="LU2" s="5" t="inlineStr">
+      <c r="LU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ML2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ND2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ON2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SG2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV2" s="5" t="n"/>
+      <c r="SH2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -5463,12 +7143,852 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="LU3" s="5" t="inlineStr">
+      <c r="LU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ME3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ML3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ND3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ON3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SG3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV3" s="5" t="n"/>
+      <c r="SH3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -7131,12 +9651,852 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="LU4" s="5" t="inlineStr">
+      <c r="LU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ML4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ND4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ON4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SG4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV4" s="5" t="n"/>
+      <c r="SH4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -8799,12 +12159,852 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="LU5" s="5" t="inlineStr">
+      <c r="LU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ML5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ND5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ON5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SG5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV5" s="5" t="n"/>
+      <c r="SH5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -10467,12 +14667,852 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="LU6" s="5" t="inlineStr">
+      <c r="LU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ML6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ND6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ON6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SG6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV6" s="5" t="n"/>
+      <c r="SH6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -12135,12 +17175,852 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="LU7" s="5" t="inlineStr">
+      <c r="LU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ML7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ND7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ON7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SG7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV7" s="5" t="n"/>
+      <c r="SH7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -13803,12 +19683,852 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="LU8" s="5" t="inlineStr">
+      <c r="LU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="LX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ML8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="MZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ND8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="NX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ON8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="OZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="PX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="QZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="RX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="SF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SG8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV8" s="5" t="n"/>
+      <c r="SH8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -15471,12 +22191,852 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="LU9" s="5" t="inlineStr">
+      <c r="LU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="LZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ME9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ML9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="MZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ND9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="NZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ON9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="OZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="PZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="QZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="RZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="SG9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="LV9" s="5" t="n"/>
+      <c r="SH9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ABN9"/>
+  <dimension ref="A1:ADB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4173,6 +4173,206 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ABM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ABN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ABO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ABP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ABR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ABS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ABT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ABU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ABV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ABW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ABX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ABY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ACW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ACX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ACY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -7875,12 +8075,212 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ABM2" s="5" t="inlineStr">
+      <c r="ABM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN2" s="5" t="n"/>
+      <c r="ADB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -11583,12 +11983,212 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ABM3" s="5" t="inlineStr">
+      <c r="ABM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN3" s="5" t="n"/>
+      <c r="ADB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -15291,12 +15891,212 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ABM4" s="5" t="inlineStr">
+      <c r="ABM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN4" s="5" t="n"/>
+      <c r="ADB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -18999,12 +19799,212 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ABM5" s="5" t="inlineStr">
+      <c r="ABM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN5" s="5" t="n"/>
+      <c r="ADB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -22707,12 +23707,212 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ABM6" s="5" t="inlineStr">
+      <c r="ABM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN6" s="5" t="n"/>
+      <c r="ADB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -26415,12 +27615,212 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ABM7" s="5" t="inlineStr">
+      <c r="ABM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN7" s="5" t="n"/>
+      <c r="ADB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -30123,12 +31523,212 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ABM8" s="5" t="inlineStr">
+      <c r="ABM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ABX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ACZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN8" s="5" t="n"/>
+      <c r="ADB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -33831,12 +35431,212 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ABM9" s="5" t="inlineStr">
+      <c r="ABM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ABZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ACZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ABN9" s="5" t="n"/>
+      <c r="ADB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ADB9"/>
+  <dimension ref="A1:ADF9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4373,6 +4373,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ADA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -8275,12 +8295,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADA2" s="5" t="inlineStr">
+      <c r="ADA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADE2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB2" s="5" t="n"/>
+      <c r="ADF2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -12183,12 +12223,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADA3" s="5" t="inlineStr">
+      <c r="ADA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADE3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB3" s="5" t="n"/>
+      <c r="ADF3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -16091,12 +16151,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADA4" s="5" t="inlineStr">
+      <c r="ADA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADE4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB4" s="5" t="n"/>
+      <c r="ADF4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -19999,12 +20079,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADA5" s="5" t="inlineStr">
+      <c r="ADA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADE5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB5" s="5" t="n"/>
+      <c r="ADF5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -23907,12 +24007,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADA6" s="5" t="inlineStr">
+      <c r="ADA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADE6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB6" s="5" t="n"/>
+      <c r="ADF6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -27815,12 +27935,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADA7" s="5" t="inlineStr">
+      <c r="ADA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADE7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB7" s="5" t="n"/>
+      <c r="ADF7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -31723,12 +31863,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADA8" s="5" t="inlineStr">
+      <c r="ADA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADE8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB8" s="5" t="n"/>
+      <c r="ADF8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -35631,12 +35791,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADA9" s="5" t="inlineStr">
+      <c r="ADA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADE9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADB9" s="5" t="n"/>
+      <c r="ADF9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ADF9"/>
+  <dimension ref="A1:AEX9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4393,6 +4393,226 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ADE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ADI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ADM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ADU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ADW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ADX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ADY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AEC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AED1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AEG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AEH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AEK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AEL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AEO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AEP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AER1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AES1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AET1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -8315,12 +8535,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADE2" s="5" t="inlineStr">
+      <c r="ADE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AED2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AER2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AES2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AET2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEW2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF2" s="5" t="n"/>
+      <c r="AEX2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -12243,12 +12683,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADE3" s="5" t="inlineStr">
+      <c r="ADE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AED3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AER3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AES3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AET3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEW3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF3" s="5" t="n"/>
+      <c r="AEX3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -16171,12 +16831,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADE4" s="5" t="inlineStr">
+      <c r="ADE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AED4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AER4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AES4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AET4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEW4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF4" s="5" t="n"/>
+      <c r="AEX4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -20099,12 +20979,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADE5" s="5" t="inlineStr">
+      <c r="ADE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AED5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AER5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AES5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AET5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEW5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF5" s="5" t="n"/>
+      <c r="AEX5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -24027,12 +25127,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ADE6" s="5" t="inlineStr">
+      <c r="ADE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AED6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AER6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AES6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AET6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEW6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF6" s="5" t="n"/>
+      <c r="AEX6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -27955,12 +29275,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADE7" s="5" t="inlineStr">
+      <c r="ADE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AED7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AER7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AES7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AET7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEW7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF7" s="5" t="n"/>
+      <c r="AEX7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -31883,12 +33423,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADE8" s="5" t="inlineStr">
+      <c r="ADE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ADX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AED8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AER8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AES8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AET8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEW8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF8" s="5" t="n"/>
+      <c r="AEX8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -35811,12 +37571,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ADE9" s="5" t="inlineStr">
+      <c r="ADE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ADZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AED9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AER9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AES9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AET9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEW9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ADF9" s="5" t="n"/>
+      <c r="AEX9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AEX9"/>
+  <dimension ref="A1:AFN9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4613,6 +4613,86 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AEW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AEX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AEY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AFA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AFE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AFI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -8755,12 +8835,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AEW2" s="5" t="inlineStr">
+      <c r="AEW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFM2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX2" s="5" t="n"/>
+      <c r="AFN2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -12903,12 +13063,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AEW3" s="5" t="inlineStr">
+      <c r="AEW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFM3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX3" s="5" t="n"/>
+      <c r="AFN3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -17051,12 +17291,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AEW4" s="5" t="inlineStr">
+      <c r="AEW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFM4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX4" s="5" t="n"/>
+      <c r="AFN4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -21199,12 +21519,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AEW5" s="5" t="inlineStr">
+      <c r="AEW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFM5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX5" s="5" t="n"/>
+      <c r="AFN5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -25347,12 +25747,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AEW6" s="5" t="inlineStr">
+      <c r="AEW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFM6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX6" s="5" t="n"/>
+      <c r="AFN6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -29495,12 +29975,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AEW7" s="5" t="inlineStr">
+      <c r="AEW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFM7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX7" s="5" t="n"/>
+      <c r="AFN7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -33643,12 +34203,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AEW8" s="5" t="inlineStr">
+      <c r="AEW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AEZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFM8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX8" s="5" t="n"/>
+      <c r="AFN8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -37791,12 +38431,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AEW9" s="5" t="inlineStr">
+      <c r="AEW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AEZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFM9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AEX9" s="5" t="n"/>
+      <c r="AFN9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AFN9"/>
+  <dimension ref="A1:AFV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4693,6 +4693,46 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AFM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -8915,12 +8955,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFM2" s="5" t="inlineStr">
+      <c r="AFM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN2" s="5" t="n"/>
+      <c r="AFV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -13143,12 +13223,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFM3" s="5" t="inlineStr">
+      <c r="AFM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN3" s="5" t="n"/>
+      <c r="AFV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -17371,12 +17491,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFM4" s="5" t="inlineStr">
+      <c r="AFM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN4" s="5" t="n"/>
+      <c r="AFV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -21599,12 +21759,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFM5" s="5" t="inlineStr">
+      <c r="AFM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN5" s="5" t="n"/>
+      <c r="AFV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -25827,12 +26027,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFM6" s="5" t="inlineStr">
+      <c r="AFM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN6" s="5" t="n"/>
+      <c r="AFV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -30055,12 +30295,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFM7" s="5" t="inlineStr">
+      <c r="AFM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN7" s="5" t="n"/>
+      <c r="AFV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -34283,12 +34563,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFM8" s="5" t="inlineStr">
+      <c r="AFM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN8" s="5" t="n"/>
+      <c r="AFV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -38511,12 +38831,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFM9" s="5" t="inlineStr">
+      <c r="AFM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFN9" s="5" t="n"/>
+      <c r="AFV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AFV9"/>
+  <dimension ref="A1:AIL9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -4733,6 +4733,346 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AFU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AFW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AFX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AFY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AGW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AGX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AGY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AHW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AHX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AHY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AIC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AID1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AIG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AIH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AII1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -8995,12 +9335,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFU2" s="5" t="inlineStr">
+      <c r="AFU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AID2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIK2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV2" s="5" t="n"/>
+      <c r="AIL2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -13263,12 +13943,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFU3" s="5" t="inlineStr">
+      <c r="AFU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AID3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AII3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIK3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV3" s="5" t="n"/>
+      <c r="AIL3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -17531,12 +18551,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFU4" s="5" t="inlineStr">
+      <c r="AFU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AID4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIK4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV4" s="5" t="n"/>
+      <c r="AIL4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -21799,12 +23159,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFU5" s="5" t="inlineStr">
+      <c r="AFU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AID5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIK5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV5" s="5" t="n"/>
+      <c r="AIL5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -26067,12 +27767,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AFU6" s="5" t="inlineStr">
+      <c r="AFU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AID6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIK6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV6" s="5" t="n"/>
+      <c r="AIL6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -30335,12 +32375,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFU7" s="5" t="inlineStr">
+      <c r="AFU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AID7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIK7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV7" s="5" t="n"/>
+      <c r="AIL7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -34603,12 +36983,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFU8" s="5" t="inlineStr">
+      <c r="AFU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AFX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AGZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AHX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AID8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIK8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV8" s="5" t="n"/>
+      <c r="AIL8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -38871,12 +41591,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AFU9" s="5" t="inlineStr">
+      <c r="AFU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AFZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AGZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AHZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AID9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AII9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIK9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AFV9" s="5" t="n"/>
+      <c r="AIL9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AIL9"/>
+  <dimension ref="A1:AKD9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5073,6 +5073,226 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AIK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AIL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AIO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AIP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AIS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AIT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AIW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AIX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AIY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AJW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AJX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AJY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -9675,12 +9895,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AIK2" s="5" t="inlineStr">
+      <c r="AIK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKC2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL2" s="5" t="n"/>
+      <c r="AKD2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -14283,12 +14723,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AIK3" s="5" t="inlineStr">
+      <c r="AIK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKC3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL3" s="5" t="n"/>
+      <c r="AKD3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -18891,12 +19551,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AIK4" s="5" t="inlineStr">
+      <c r="AIK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKC4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL4" s="5" t="n"/>
+      <c r="AKD4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -23499,12 +24379,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AIK5" s="5" t="inlineStr">
+      <c r="AIK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKC5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL5" s="5" t="n"/>
+      <c r="AKD5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -28107,12 +29207,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AIK6" s="5" t="inlineStr">
+      <c r="AIK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKC6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL6" s="5" t="n"/>
+      <c r="AKD6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -32715,12 +34035,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AIK7" s="5" t="inlineStr">
+      <c r="AIK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKC7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL7" s="5" t="n"/>
+      <c r="AKD7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -37323,12 +38863,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AIK8" s="5" t="inlineStr">
+      <c r="AIK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AIZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AJX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKC8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL8" s="5" t="n"/>
+      <c r="AKD8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -41931,12 +43691,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AIK9" s="5" t="inlineStr">
+      <c r="AIK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AIZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AJZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKC9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AIL9" s="5" t="n"/>
+      <c r="AKD9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AKD9"/>
+  <dimension ref="A1:AKP9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5293,6 +5293,66 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AKC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AKG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AKK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -10115,12 +10175,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKC2" s="5" t="inlineStr">
+      <c r="AKC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKO2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD2" s="5" t="n"/>
+      <c r="AKP2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -14943,12 +15063,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKC3" s="5" t="inlineStr">
+      <c r="AKC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKO3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD3" s="5" t="n"/>
+      <c r="AKP3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -19771,12 +19951,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKC4" s="5" t="inlineStr">
+      <c r="AKC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKO4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD4" s="5" t="n"/>
+      <c r="AKP4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -24599,12 +24839,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKC5" s="5" t="inlineStr">
+      <c r="AKC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKO5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD5" s="5" t="n"/>
+      <c r="AKP5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -29427,12 +29727,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKC6" s="5" t="inlineStr">
+      <c r="AKC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKO6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD6" s="5" t="n"/>
+      <c r="AKP6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -34255,12 +34615,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKC7" s="5" t="inlineStr">
+      <c r="AKC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKO7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD7" s="5" t="n"/>
+      <c r="AKP7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -39083,12 +39503,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKC8" s="5" t="inlineStr">
+      <c r="AKC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKO8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD8" s="5" t="n"/>
+      <c r="AKP8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -43911,12 +44391,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKC9" s="5" t="inlineStr">
+      <c r="AKC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKO9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKD9" s="5" t="n"/>
+      <c r="AKP9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AKP9"/>
+  <dimension ref="A1:ALZ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5353,6 +5353,186 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AKO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AKS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AKW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AKX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AKY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AKZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ALU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ALW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ALX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -10235,12 +10415,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKO2" s="5" t="inlineStr">
+      <c r="AKO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP2" s="5" t="n"/>
+      <c r="ALZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -15123,12 +15483,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKO3" s="5" t="inlineStr">
+      <c r="AKO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP3" s="5" t="n"/>
+      <c r="ALZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20011,12 +20551,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKO4" s="5" t="inlineStr">
+      <c r="AKO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP4" s="5" t="n"/>
+      <c r="ALZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -24899,12 +25619,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKO5" s="5" t="inlineStr">
+      <c r="AKO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP5" s="5" t="n"/>
+      <c r="ALZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -29787,12 +30687,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AKO6" s="5" t="inlineStr">
+      <c r="AKO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP6" s="5" t="n"/>
+      <c r="ALZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -34675,12 +35755,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKO7" s="5" t="inlineStr">
+      <c r="AKO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP7" s="5" t="n"/>
+      <c r="ALZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -39563,12 +40823,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKO8" s="5" t="inlineStr">
+      <c r="AKO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AKZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP8" s="5" t="n"/>
+      <c r="ALZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -44451,12 +45891,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AKO9" s="5" t="inlineStr">
+      <c r="AKO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AKZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AKP9" s="5" t="n"/>
+      <c r="ALZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ALZ9"/>
+  <dimension ref="A1:ANV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5533,6 +5533,246 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ALY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ALZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AMD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AME1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AMH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AML1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AMP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AMT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AMW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AMX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AMY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AMZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AND1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ANH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ANL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ANP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ANT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -10595,12 +10835,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ALY2" s="5" t="inlineStr">
+      <c r="ALY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AML2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AND2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ2" s="5" t="n"/>
+      <c r="ANV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -15663,12 +16143,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ALY3" s="5" t="inlineStr">
+      <c r="ALY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AME3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AML3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AND3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ3" s="5" t="n"/>
+      <c r="ANV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20731,12 +21451,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ALY4" s="5" t="inlineStr">
+      <c r="ALY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AML4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AND4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ4" s="5" t="n"/>
+      <c r="ANV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -25799,12 +26759,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ALY5" s="5" t="inlineStr">
+      <c r="ALY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AML5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AND5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ5" s="5" t="n"/>
+      <c r="ANV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -30867,12 +32067,252 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ALY6" s="5" t="inlineStr">
+      <c r="ALY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ALZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AML6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AND6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ6" s="5" t="n"/>
+      <c r="ANV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -35935,12 +37375,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ALY7" s="5" t="inlineStr">
+      <c r="ALY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AML7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AND7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ7" s="5" t="n"/>
+      <c r="ANV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -41003,12 +42683,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ALY8" s="5" t="inlineStr">
+      <c r="ALY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AML8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AMZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AND8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ8" s="5" t="n"/>
+      <c r="ANV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -46071,12 +47991,252 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ALY9" s="5" t="inlineStr">
+      <c r="ALY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ALZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AME9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AML9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AMZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AND9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ALZ9" s="5" t="n"/>
+      <c r="ANV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ANV9"/>
+  <dimension ref="A1:AOL9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5773,6 +5773,86 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ANU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ANW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ANX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ANY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ANZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AOC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AOG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11075,12 +11155,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ANU2" s="5" t="inlineStr">
+      <c r="ANU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOK2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV2" s="5" t="n"/>
+      <c r="AOL2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -16383,12 +16543,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ANU3" s="5" t="inlineStr">
+      <c r="ANU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOK3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV3" s="5" t="n"/>
+      <c r="AOL3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -21691,12 +21931,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ANU4" s="5" t="inlineStr">
+      <c r="ANU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOK4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV4" s="5" t="n"/>
+      <c r="AOL4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -26999,12 +27319,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ANU5" s="5" t="inlineStr">
+      <c r="ANU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOK5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV5" s="5" t="n"/>
+      <c r="AOL5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -32307,12 +32707,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ANU6" s="5" t="inlineStr">
+      <c r="ANU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOK6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV6" s="5" t="n"/>
+      <c r="AOL6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -37615,12 +38095,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ANU7" s="5" t="inlineStr">
+      <c r="ANU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOK7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV7" s="5" t="n"/>
+      <c r="AOL7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -42923,12 +43483,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ANU8" s="5" t="inlineStr">
+      <c r="ANU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ANX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOK8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV8" s="5" t="n"/>
+      <c r="AOL8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -48231,12 +48871,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ANU9" s="5" t="inlineStr">
+      <c r="ANU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ANZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOK9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ANV9" s="5" t="n"/>
+      <c r="AOL9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AOL9"/>
+  <dimension ref="A1:AOT9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5853,6 +5853,46 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AOK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AON1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AOO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11235,12 +11275,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOK2" s="5" t="inlineStr">
+      <c r="AOK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AON2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOS2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL2" s="5" t="n"/>
+      <c r="AOT2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -16623,12 +16703,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOK3" s="5" t="inlineStr">
+      <c r="AOK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AON3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOS3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL3" s="5" t="n"/>
+      <c r="AOT3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -22011,12 +22131,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOK4" s="5" t="inlineStr">
+      <c r="AOK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AON4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOS4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL4" s="5" t="n"/>
+      <c r="AOT4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27399,12 +27559,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOK5" s="5" t="inlineStr">
+      <c r="AOK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AON5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOS5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL5" s="5" t="n"/>
+      <c r="AOT5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -32787,12 +32987,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOK6" s="5" t="inlineStr">
+      <c r="AOK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AON6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOS6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL6" s="5" t="n"/>
+      <c r="AOT6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -38175,12 +38415,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOK7" s="5" t="inlineStr">
+      <c r="AOK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AON7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOS7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL7" s="5" t="n"/>
+      <c r="AOT7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -43563,12 +43843,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOK8" s="5" t="inlineStr">
+      <c r="AOK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AON8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOS8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL8" s="5" t="n"/>
+      <c r="AOT8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -48951,12 +49271,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOK9" s="5" t="inlineStr">
+      <c r="AOK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AON9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOS9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOL9" s="5" t="n"/>
+      <c r="AOT9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AOT9"/>
+  <dimension ref="A1:APB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5893,6 +5893,46 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AOS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AOW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AOX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AOY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AOZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11315,12 +11355,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOS2" s="5" t="inlineStr">
+      <c r="AOS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT2" s="5" t="n"/>
+      <c r="APB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -16743,12 +16823,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOS3" s="5" t="inlineStr">
+      <c r="AOS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT3" s="5" t="n"/>
+      <c r="APB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -22171,12 +22291,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOS4" s="5" t="inlineStr">
+      <c r="AOS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT4" s="5" t="n"/>
+      <c r="APB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27599,12 +27759,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOS5" s="5" t="inlineStr">
+      <c r="AOS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT5" s="5" t="n"/>
+      <c r="APB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33027,12 +33227,52 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AOS6" s="5" t="inlineStr">
+      <c r="AOS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT6" s="5" t="n"/>
+      <c r="APB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -38455,12 +38695,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOS7" s="5" t="inlineStr">
+      <c r="AOS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT7" s="5" t="n"/>
+      <c r="APB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -43883,12 +44163,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOS8" s="5" t="inlineStr">
+      <c r="AOS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AOZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT8" s="5" t="n"/>
+      <c r="APB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -49311,12 +49631,52 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AOS9" s="5" t="inlineStr">
+      <c r="AOS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AOZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AOT9" s="5" t="n"/>
+      <c r="APB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:APB9"/>
+  <dimension ref="A1:APV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -5933,6 +5933,106 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="APA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="APE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="API1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="APM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="APQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11395,12 +11495,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APA2" s="5" t="inlineStr">
+      <c r="APA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="API2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB2" s="5" t="n"/>
+      <c r="APV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -16863,12 +17063,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APA3" s="5" t="inlineStr">
+      <c r="APA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="API3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB3" s="5" t="n"/>
+      <c r="APV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -22331,12 +22631,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APA4" s="5" t="inlineStr">
+      <c r="APA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="API4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB4" s="5" t="n"/>
+      <c r="APV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27799,12 +28199,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APA5" s="5" t="inlineStr">
+      <c r="APA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="API5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB5" s="5" t="n"/>
+      <c r="APV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33267,12 +33767,112 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APA6" s="5" t="inlineStr">
+      <c r="APA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="API6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB6" s="5" t="n"/>
+      <c r="APV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -38735,12 +39335,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APA7" s="5" t="inlineStr">
+      <c r="APA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="API7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB7" s="5" t="n"/>
+      <c r="APV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -44203,12 +44903,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APA8" s="5" t="inlineStr">
+      <c r="APA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="API8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB8" s="5" t="n"/>
+      <c r="APV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -49671,12 +50471,112 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APA9" s="5" t="inlineStr">
+      <c r="APA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="API9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APB9" s="5" t="n"/>
+      <c r="APV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:APV9"/>
+  <dimension ref="A1:APZ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -6033,6 +6033,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="APU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="APW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="APX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11595,12 +11615,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APU2" s="5" t="inlineStr">
+      <c r="APU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV2" s="5" t="n"/>
+      <c r="APZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -17163,12 +17203,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APU3" s="5" t="inlineStr">
+      <c r="APU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV3" s="5" t="n"/>
+      <c r="APZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -22731,12 +22791,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APU4" s="5" t="inlineStr">
+      <c r="APU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV4" s="5" t="n"/>
+      <c r="APZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -28299,12 +28379,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APU5" s="5" t="inlineStr">
+      <c r="APU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV5" s="5" t="n"/>
+      <c r="APZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33867,12 +33967,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APU6" s="5" t="inlineStr">
+      <c r="APU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV6" s="5" t="n"/>
+      <c r="APZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -39435,12 +39555,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APU7" s="5" t="inlineStr">
+      <c r="APU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV7" s="5" t="n"/>
+      <c r="APZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -45003,12 +45143,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APU8" s="5" t="inlineStr">
+      <c r="APU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV8" s="5" t="n"/>
+      <c r="APZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -50571,12 +50731,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APU9" s="5" t="inlineStr">
+      <c r="APU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APV9" s="5" t="n"/>
+      <c r="APZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:APZ9"/>
+  <dimension ref="A1:ARR9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -6053,6 +6053,226 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="APY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="APZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AQW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AQX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AQY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AQZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ARD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ARH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ARL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ARP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -11635,12 +11855,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APY2" s="5" t="inlineStr">
+      <c r="APY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARQ2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ2" s="5" t="n"/>
+      <c r="ARR2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -17223,12 +17663,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APY3" s="5" t="inlineStr">
+      <c r="APY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARQ3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ3" s="5" t="n"/>
+      <c r="ARR3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -22811,12 +23471,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APY4" s="5" t="inlineStr">
+      <c r="APY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARQ4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ4" s="5" t="n"/>
+      <c r="ARR4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -28399,12 +29279,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APY5" s="5" t="inlineStr">
+      <c r="APY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARQ5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ5" s="5" t="n"/>
+      <c r="ARR5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33987,12 +35087,232 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="APY6" s="5" t="inlineStr">
+      <c r="APY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="APZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARQ6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ6" s="5" t="n"/>
+      <c r="ARR6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -39575,12 +40895,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APY7" s="5" t="inlineStr">
+      <c r="APY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARQ7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ7" s="5" t="n"/>
+      <c r="ARR7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -45163,12 +46703,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APY8" s="5" t="inlineStr">
+      <c r="APY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AQZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARQ8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ8" s="5" t="n"/>
+      <c r="ARR8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -50751,12 +52511,232 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="APY9" s="5" t="inlineStr">
+      <c r="APY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="APZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AQZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARQ9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="APZ9" s="5" t="n"/>
+      <c r="ARR9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ARR9"/>
+  <dimension ref="A1:ASD9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F4 E1"/>
@@ -6273,6 +6273,66 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ARQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ART1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ARW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ARX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ARY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ARZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ASA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ASB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -12075,12 +12135,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ARQ2" s="5" t="inlineStr">
+      <c r="ARQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ART2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASC2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR2" s="5" t="n"/>
+      <c r="ASD2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -17883,12 +18003,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ARQ3" s="5" t="inlineStr">
+      <c r="ARQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ART3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASC3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR3" s="5" t="n"/>
+      <c r="ASD3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -23691,12 +23871,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ARQ4" s="5" t="inlineStr">
+      <c r="ARQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ART4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASC4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR4" s="5" t="n"/>
+      <c r="ASD4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -29499,12 +29739,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ARQ5" s="5" t="inlineStr">
+      <c r="ARQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ART5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASC5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR5" s="5" t="n"/>
+      <c r="ASD5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -35307,12 +35607,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ARQ6" s="5" t="inlineStr">
+      <c r="ARQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ART6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASC6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR6" s="5" t="n"/>
+      <c r="ASD6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -41115,12 +41475,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ARQ7" s="5" t="inlineStr">
+      <c r="ARQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ART7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASC7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR7" s="5" t="n"/>
+      <c r="ASD7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -46923,12 +47343,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ARQ8" s="5" t="inlineStr">
+      <c r="ARQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ART8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ARX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASC8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR8" s="5" t="n"/>
+      <c r="ASD8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -52731,12 +53211,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ARQ9" s="5" t="inlineStr">
+      <c r="ARQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ART9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ARZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASC9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="ARR9" s="5" t="n"/>
+      <c r="ASD9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AST9"/>
+  <dimension ref="A1:AUT9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -6306,6 +6306,266 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="ASS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AST1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ASU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ASV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ASW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ASX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ASY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ASZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="ATW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="ATX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="ATY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="ATZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AUC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AUG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AUK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AUO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -12248,12 +12508,272 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ASS2" s="5" t="inlineStr">
+      <c r="ASS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AST2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUS2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST2" s="5" t="n"/>
+      <c r="AUT2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -18196,12 +18716,272 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ASS3" s="5" t="inlineStr">
+      <c r="ASS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AST3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUS3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST3" s="5" t="n"/>
+      <c r="AUT3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -24144,12 +24924,272 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ASS4" s="5" t="inlineStr">
+      <c r="ASS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AST4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUS4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST4" s="5" t="n"/>
+      <c r="AUT4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -30092,12 +31132,272 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ASS5" s="5" t="inlineStr">
+      <c r="ASS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AST5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUS5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST5" s="5" t="n"/>
+      <c r="AUT5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -36040,12 +37340,272 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="ASS6" s="5" t="inlineStr">
+      <c r="ASS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AST6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUS6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST6" s="5" t="n"/>
+      <c r="AUT6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -41988,12 +43548,272 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ASS7" s="5" t="inlineStr">
+      <c r="ASS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AST7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUS7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST7" s="5" t="n"/>
+      <c r="AUT7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -47936,12 +49756,272 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ASS8" s="5" t="inlineStr">
+      <c r="ASS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AST8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ASZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="ATX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUS8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST8" s="5" t="n"/>
+      <c r="AUT8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -53884,12 +55964,272 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="ASS9" s="5" t="inlineStr">
+      <c r="ASS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AST9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ASZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="ATZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUS9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AST9" s="5" t="n"/>
+      <c r="AUT9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AUT9"/>
+  <dimension ref="A1:AXB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -6566,6 +6566,306 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AUS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AUW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AUX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AUY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AUZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AVW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AVX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AVY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AVZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AWW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AWX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AWY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AWZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -12768,12 +13068,312 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AUS2" s="5" t="inlineStr">
+      <c r="AUS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT2" s="5" t="n"/>
+      <c r="AXB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -18976,12 +19576,312 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AUS3" s="5" t="inlineStr">
+      <c r="AUS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT3" s="5" t="n"/>
+      <c r="AXB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -25184,12 +26084,312 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AUS4" s="5" t="inlineStr">
+      <c r="AUS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT4" s="5" t="n"/>
+      <c r="AXB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -31392,12 +32592,312 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AUS5" s="5" t="inlineStr">
+      <c r="AUS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT5" s="5" t="n"/>
+      <c r="AXB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -37600,12 +39100,312 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AUS6" s="5" t="inlineStr">
+      <c r="AUS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT6" s="5" t="n"/>
+      <c r="AXB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -43808,12 +45608,312 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AUS7" s="5" t="inlineStr">
+      <c r="AUS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT7" s="5" t="n"/>
+      <c r="AXB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -50016,12 +52116,312 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AUS8" s="5" t="inlineStr">
+      <c r="AUS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AUZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AVX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AWZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT8" s="5" t="n"/>
+      <c r="AXB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -56224,12 +58624,312 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AUS9" s="5" t="inlineStr">
+      <c r="AUS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AUZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AVZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AWZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AUT9" s="5" t="n"/>
+      <c r="AXB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AXN9"/>
+  <dimension ref="A1:AXR9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -6926,6 +6926,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AXM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AXN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AXO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AXP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -13488,12 +13508,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXM2" s="5" t="inlineStr">
+      <c r="AXM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXQ2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN2" s="5" t="n"/>
+      <c r="AXR2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -20056,12 +20096,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXM3" s="5" t="inlineStr">
+      <c r="AXM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXQ3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN3" s="5" t="n"/>
+      <c r="AXR3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -26624,12 +26684,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXM4" s="5" t="inlineStr">
+      <c r="AXM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXQ4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN4" s="5" t="n"/>
+      <c r="AXR4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -33192,12 +33272,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXM5" s="5" t="inlineStr">
+      <c r="AXM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXQ5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN5" s="5" t="n"/>
+      <c r="AXR5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -39760,12 +39860,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXM6" s="5" t="inlineStr">
+      <c r="AXM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXQ6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN6" s="5" t="n"/>
+      <c r="AXR6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -46328,12 +46448,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXM7" s="5" t="inlineStr">
+      <c r="AXM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXQ7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN7" s="5" t="n"/>
+      <c r="AXR7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -52896,12 +53036,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXM8" s="5" t="inlineStr">
+      <c r="AXM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXQ8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN8" s="5" t="n"/>
+      <c r="AXR8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -59464,12 +59624,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXM9" s="5" t="inlineStr">
+      <c r="AXM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXQ9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXN9" s="5" t="n"/>
+      <c r="AXR9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AXR9"/>
+  <dimension ref="A1:AXV9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -6946,6 +6946,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AXQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AXR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AXS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AXT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -13528,12 +13548,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXQ2" s="5" t="inlineStr">
+      <c r="AXQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXU2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR2" s="5" t="n"/>
+      <c r="AXV2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -20116,12 +20156,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXQ3" s="5" t="inlineStr">
+      <c r="AXQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXU3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR3" s="5" t="n"/>
+      <c r="AXV3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -26704,12 +26764,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXQ4" s="5" t="inlineStr">
+      <c r="AXQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXU4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR4" s="5" t="n"/>
+      <c r="AXV4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -33292,12 +33372,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXQ5" s="5" t="inlineStr">
+      <c r="AXQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXU5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR5" s="5" t="n"/>
+      <c r="AXV5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -39880,12 +39980,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXQ6" s="5" t="inlineStr">
+      <c r="AXQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXU6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR6" s="5" t="n"/>
+      <c r="AXV6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -46468,12 +46588,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXQ7" s="5" t="inlineStr">
+      <c r="AXQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXU7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR7" s="5" t="n"/>
+      <c r="AXV7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -53056,12 +53196,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXQ8" s="5" t="inlineStr">
+      <c r="AXQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXU8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR8" s="5" t="n"/>
+      <c r="AXV8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -59644,12 +59804,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXQ9" s="5" t="inlineStr">
+      <c r="AXQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXU9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXR9" s="5" t="n"/>
+      <c r="AXV9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -353,16 +353,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AXV9"/>
+  <dimension ref="A1:AXZ9"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.539999999999999" customWidth="1" style="3" min="1" max="4"/>
-    <col width="11.53" customWidth="1" style="3" min="16381" max="16384"/>
+    <col width="8.539999999999999" customWidth="1" style="3" min="1" max="3"/>
+    <col width="11.53" customWidth="1" style="3" min="16373" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="4">
@@ -6966,6 +6966,26 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AXU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AXV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AXW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AXX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -6988,24 +7008,9 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -13568,12 +13573,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXU2" s="5" t="inlineStr">
+      <c r="AXU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV2" s="5" t="n"/>
+      <c r="AXZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -13598,22 +13623,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -20176,12 +20191,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXU3" s="5" t="inlineStr">
+      <c r="AXU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV3" s="5" t="n"/>
+      <c r="AXZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20206,22 +20241,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -26784,12 +26819,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXU4" s="5" t="inlineStr">
+      <c r="AXU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV4" s="5" t="n"/>
+      <c r="AXZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -26812,24 +26867,9 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -33392,12 +33432,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXU5" s="5" t="inlineStr">
+      <c r="AXU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV5" s="5" t="n"/>
+      <c r="AXZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33420,24 +33480,9 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -40000,12 +40045,32 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXU6" s="5" t="inlineStr">
+      <c r="AXU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV6" s="5" t="n"/>
+      <c r="AXZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -40030,22 +40095,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -46608,12 +46673,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXU7" s="5" t="inlineStr">
+      <c r="AXU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV7" s="5" t="n"/>
+      <c r="AXZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -46638,22 +46723,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -53216,12 +53296,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXU8" s="5" t="inlineStr">
+      <c r="AXU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV8" s="5" t="n"/>
+      <c r="AXZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -53246,22 +53346,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -59824,12 +59924,32 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXU9" s="5" t="inlineStr">
+      <c r="AXU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXV9" s="5" t="n"/>
+      <c r="AXZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
@@ -59847,13 +59967,14 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.539999999999999" customWidth="1" style="3" min="1" max="4"/>
+    <col width="8.539999999999999" customWidth="1" style="3" min="1" max="3"/>
+    <col width="29.16" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="4">
@@ -59919,26 +60040,14 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+      <c r="E2" s="5" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
       <c r="I2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
@@ -59969,24 +60078,16 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
@@ -60017,22 +60118,22 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -60063,26 +60164,14 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+      <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
@@ -60111,26 +60200,14 @@
           <t>Henri;</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+      <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
@@ -60161,22 +60238,22 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -60209,22 +60286,18 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n"/>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -60257,22 +60330,22 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AXZ9"/>
+  <dimension ref="A1:AZJ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -6986,6 +6986,186 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AXY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AXZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AYW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AYX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AYY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AYZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AZA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AZE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -7013,184 +7193,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AB2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AG2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AI2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AJ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AK2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AM2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AN2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AO2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AQ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AR2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS2" s="3" t="inlineStr">
@@ -13593,12 +13638,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXY2" s="5" t="inlineStr">
+      <c r="AXY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZI2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ2" s="5" t="n"/>
+      <c r="AZJ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -13633,182 +13858,92 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="Z3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AB3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AD3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AE3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AF3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AJ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AL3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AM3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AN3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AP3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AR3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS3" s="3" t="inlineStr">
@@ -20211,12 +20346,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXY3" s="5" t="inlineStr">
+      <c r="AXY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZI3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ3" s="5" t="n"/>
+      <c r="AZJ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20261,182 +20576,182 @@
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AE4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS4" s="3" t="inlineStr">
@@ -26839,12 +27154,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXY4" s="5" t="inlineStr">
+      <c r="AXY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZI4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ4" s="5" t="n"/>
+      <c r="AZJ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -26872,184 +27367,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Y5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AB5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AC5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AE5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AF5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AG5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AI5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AJ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AK5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AM5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AN5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AO5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AQ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AR5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS5" s="3" t="inlineStr">
@@ -33452,12 +33812,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXY5" s="5" t="inlineStr">
+      <c r="AXY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZI5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ5" s="5" t="n"/>
+      <c r="AZJ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -33485,184 +34025,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="Y6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AA6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AB6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AC6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AF6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AG6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AI6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AJ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AK6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AM6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AN6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AO6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AQ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AR6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS6" s="3" t="inlineStr">
@@ -40065,12 +40470,192 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AXY6" s="5" t="inlineStr">
+      <c r="AXY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AXZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZI6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ6" s="5" t="n"/>
+      <c r="AZJ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -40115,182 +40700,182 @@
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AE7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS7" s="3" t="inlineStr">
@@ -46693,12 +47278,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXY7" s="5" t="inlineStr">
+      <c r="AXY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZI7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ7" s="5" t="n"/>
+      <c r="AZJ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -46738,182 +47503,137 @@
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="S8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AA8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AE8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AI8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AM8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AQ8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS8" s="3" t="inlineStr">
@@ -53316,12 +54036,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXY8" s="5" t="inlineStr">
+      <c r="AXY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AYZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZI8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ8" s="5" t="n"/>
+      <c r="AZJ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -53366,182 +54266,182 @@
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AE9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS9" s="3" t="inlineStr">
@@ -59944,12 +60844,192 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AXY9" s="5" t="inlineStr">
+      <c r="AXY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AXZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AYZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZI9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AXZ9" s="5" t="n"/>
+      <c r="AZJ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AZJ9"/>
+  <dimension ref="A1:AZZ9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -7166,6 +7166,86 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AZI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AZM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AZQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="AZU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="AZW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="AZX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -7238,84 +7318,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AS2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="AT2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AU2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AV2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AW2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AY2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AZ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BA2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BC2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BD2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BE2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BG2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BH2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI2" s="3" t="inlineStr">
@@ -13818,12 +13838,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZI2" s="5" t="inlineStr">
+      <c r="AZI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZY2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ2" s="5" t="n"/>
+      <c r="AZZ2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -13948,82 +14048,42 @@
       </c>
       <c r="AS3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AT3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AV3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AX3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AY3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AZ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BA3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BB3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BC3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BD3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BE3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BF3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BG3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BH3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI3" s="3" t="inlineStr">
@@ -20526,12 +20586,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZI3" s="5" t="inlineStr">
+      <c r="AZI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZY3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ3" s="5" t="n"/>
+      <c r="AZZ3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20756,82 +20896,82 @@
       </c>
       <c r="AS4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AY4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AZ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BA4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BC4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BD4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BE4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BG4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BH4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI4" s="3" t="inlineStr">
@@ -27334,12 +27474,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZI4" s="5" t="inlineStr">
+      <c r="AZI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZY4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ4" s="5" t="n"/>
+      <c r="AZZ4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27412,84 +27632,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AS5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="AT5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AU5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AV5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AW5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AY5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AZ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BA5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BC5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BD5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BE5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BG5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BH5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI5" s="3" t="inlineStr">
@@ -33992,12 +34152,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZI5" s="5" t="inlineStr">
+      <c r="AZI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZY5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ5" s="5" t="n"/>
+      <c r="AZZ5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -34070,84 +34310,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AS6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="AT6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AU6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AV6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AW6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AY6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AZ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BA6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BC6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BD6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BE6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BG6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BH6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI6" s="3" t="inlineStr">
@@ -40650,12 +40830,92 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZI6" s="5" t="inlineStr">
+      <c r="AZI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZY6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ6" s="5" t="n"/>
+      <c r="AZZ6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -40880,82 +41140,82 @@
       </c>
       <c r="AS7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AY7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AZ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BA7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BC7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BD7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BE7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BG7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BH7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI7" s="3" t="inlineStr">
@@ -47458,12 +47718,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZI7" s="5" t="inlineStr">
+      <c r="AZI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZY7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ7" s="5" t="n"/>
+      <c r="AZZ7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -47638,82 +47978,62 @@
       </c>
       <c r="AS8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AU8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="AY8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AZ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BA8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BC8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BD8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BE8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BG8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BH8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI8" s="3" t="inlineStr">
@@ -54216,12 +54536,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZI8" s="5" t="inlineStr">
+      <c r="AZI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZY8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ8" s="5" t="n"/>
+      <c r="AZZ8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -54446,82 +54846,82 @@
       </c>
       <c r="AS9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AU9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AV9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AW9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AX9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AY9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AZ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BA9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BB9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BC9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BD9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BE9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BF9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BG9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BH9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BI9" s="3" t="inlineStr">
@@ -61024,12 +61424,92 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZI9" s="5" t="inlineStr">
+      <c r="AZI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZY9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZJ9" s="5" t="n"/>
+      <c r="AZZ9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AZZ9"/>
+  <dimension ref="A1:BAL9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -7246,6 +7246,66 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="AZY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="AZZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BAC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BAG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -7338,64 +7398,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BI2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BJ2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BK2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BL2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BM2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BO2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BP2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BQ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BS2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BT2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU2" s="3" t="inlineStr">
@@ -13918,12 +13933,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZY2" s="5" t="inlineStr">
+      <c r="AZY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAK2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ2" s="5" t="n"/>
+      <c r="BAL2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -14088,62 +14163,32 @@
       </c>
       <c r="BI3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BJ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BK3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BL3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BM3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BN3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BO3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BP3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BQ3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BR3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BS3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BT3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU3" s="3" t="inlineStr">
@@ -20666,12 +20711,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZY3" s="5" t="inlineStr">
+      <c r="AZY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAK3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ3" s="5" t="n"/>
+      <c r="BAL3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -20976,62 +21081,62 @@
       </c>
       <c r="BI4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BJ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BK4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BL4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BM4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BO4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BP4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BQ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BS4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BT4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU4" s="3" t="inlineStr">
@@ -27554,12 +27659,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZY4" s="5" t="inlineStr">
+      <c r="AZY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAK4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ4" s="5" t="n"/>
+      <c r="BAL4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27652,64 +27817,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BI5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BJ5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BK5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BL5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BM5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BO5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BP5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BQ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BS5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BT5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU5" s="3" t="inlineStr">
@@ -34232,12 +34352,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZY5" s="5" t="inlineStr">
+      <c r="AZY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAK5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ5" s="5" t="n"/>
+      <c r="BAL5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -34330,64 +34510,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BI6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BJ6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BK6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BL6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BM6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BO6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BP6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BQ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BS6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BT6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU6" s="3" t="inlineStr">
@@ -40910,12 +41045,72 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="AZY6" s="5" t="inlineStr">
+      <c r="AZY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="AZZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAK6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ6" s="5" t="n"/>
+      <c r="BAL6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -41220,62 +41415,62 @@
       </c>
       <c r="BI7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BJ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BK7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BL7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BM7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BO7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BP7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BQ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BS7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BT7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU7" s="3" t="inlineStr">
@@ -47798,12 +47993,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZY7" s="5" t="inlineStr">
+      <c r="AZY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAK7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ7" s="5" t="n"/>
+      <c r="BAL7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -48038,62 +48293,47 @@
       </c>
       <c r="BI8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BJ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BK8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BL8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BM8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BO8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BP8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BQ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BS8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BT8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU8" s="3" t="inlineStr">
@@ -54616,12 +54856,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZY8" s="5" t="inlineStr">
+      <c r="AZY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAK8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ8" s="5" t="n"/>
+      <c r="BAL8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -54926,62 +55226,62 @@
       </c>
       <c r="BI9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BJ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BK9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BL9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BM9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BN9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BO9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BP9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BQ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BR9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BS9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BT9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BU9" s="3" t="inlineStr">
@@ -61504,12 +61804,72 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="AZY9" s="5" t="inlineStr">
+      <c r="AZY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="AZZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAK9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="AZZ9" s="5" t="n"/>
+      <c r="BAL9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BAL9"/>
+  <dimension ref="A1:BDB9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -7306,6 +7306,346 @@
           <t>Dulcinée</t>
         </is>
       </c>
+      <c r="BAK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BAO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BAS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BAW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BAX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BAY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BAZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBA1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBB1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBC1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBD1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBE1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBF1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBG1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBH1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBI1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBJ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBK1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBL1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBM1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBN1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBO1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBP1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBQ1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBR1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBS1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBT1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBU1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBV1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BBW1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BBX1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BBY1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BBZ1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCA1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCB1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCC1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCD1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCE1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCF1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCG1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCH1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCI1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCJ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCK1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCL1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCM1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCN1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCO1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCP1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCQ1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCR1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCS1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCT1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCU1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCV1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
+      <c r="BCW1" s="3" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="BCX1" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="BCY1" s="3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="BCZ1" s="3" t="inlineStr">
+        <is>
+          <t>Dulcinée</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="4">
       <c r="A2" s="5" t="inlineStr">
@@ -7413,344 +7753,89 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BU2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BV2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BW2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BX2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BY2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CA2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CB2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CC2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CE2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CF2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CG2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CI2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CJ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CK2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CM2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CN2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CO2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CQ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CR2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CS2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CU2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CV2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CW2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CY2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CZ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DA2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DC2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DD2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DE2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DG2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DH2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DI2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DK2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DL2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DM2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DO2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DP2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DQ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DS2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DT2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DU2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DW2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DX2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DY2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EA2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EB2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EC2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EE2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EF2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EG2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH2" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EI2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EJ2" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK2" s="3" t="inlineStr">
@@ -13993,12 +14078,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="BAK2" s="5" t="inlineStr">
+      <c r="BAK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBB2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBD2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBF2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBH2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBJ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBL2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBN2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBP2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBR2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBT2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBV2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBX2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBZ2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCB2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCC2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCD2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCF2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCG2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCH2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCJ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCK2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCL2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCN2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCO2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCP2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCR2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCS2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCT2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCV2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCW2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCX2" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCZ2" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BDA2" s="5" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL2" s="5" t="n"/>
+      <c r="BDB2" s="5" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="4">
       <c r="A3" s="5" t="inlineStr">
@@ -14193,342 +14618,172 @@
       </c>
       <c r="BU3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BV3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BW3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BX3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BZ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CA3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CB3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CC3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CD3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CE3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CF3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CG3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CH3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CI3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CJ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CK3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CL3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CM3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CN3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CO3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CP3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CQ3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CR3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CS3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CT3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CU3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CV3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CW3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CX3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CY3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CZ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DA3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DB3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DC3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DD3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DE3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DF3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DG3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DH3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DI3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DJ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DK3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DL3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DM3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DN3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DO3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DP3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DQ3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DR3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DS3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DT3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DU3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DV3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DW3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DX3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DY3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DZ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EA3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EB3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EC3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="ED3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EE3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EF3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EG3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EH3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EI3" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EJ3" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK3" s="3" t="inlineStr">
@@ -20771,12 +21026,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="BAK3" s="5" t="inlineStr">
+      <c r="BAK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCA3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCB3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCC3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCD3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCE3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCF3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCG3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCH3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCI3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCJ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCK3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCL3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCM3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCN3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCO3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCP3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCQ3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCR3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCS3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCT3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCU3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCV3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCW3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCX3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCY3" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCZ3" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BDA3" s="5" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL3" s="5" t="n"/>
+      <c r="BDB3" s="5" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
@@ -21141,342 +21736,342 @@
       </c>
       <c r="BU4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BV4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BW4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BX4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CA4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CB4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CC4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CE4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CF4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CG4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CI4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CJ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CK4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CM4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CN4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CO4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CQ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CR4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CS4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CU4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CV4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CW4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CY4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CZ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DA4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DC4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DD4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DE4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DG4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DH4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DI4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DK4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DL4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DM4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DO4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DP4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DQ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DS4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DT4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DU4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DW4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DX4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DY4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EA4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EB4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EC4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EE4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EF4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EG4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EI4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EJ4" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK4" s="3" t="inlineStr">
@@ -27719,12 +28314,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="BAK4" s="5" t="inlineStr">
+      <c r="BAK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCB4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCC4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCD4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCF4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCG4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCH4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCJ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCK4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCL4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCN4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCO4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCP4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCR4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCS4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCT4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCV4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCW4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCX4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCZ4" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BDA4" s="5" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL4" s="5" t="n"/>
+      <c r="BDB4" s="5" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="4">
       <c r="A5" s="5" t="inlineStr">
@@ -27832,344 +28767,89 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BU5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BV5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BW5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BX5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BY5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CA5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CB5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CC5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CE5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CF5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CG5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CI5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CJ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CK5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CM5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CN5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CO5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CQ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CR5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CS5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CU5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CV5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CW5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CY5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CZ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DA5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DC5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DD5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DE5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DG5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DH5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DI5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DK5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DL5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DM5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DO5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DP5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DQ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DS5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DT5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DU5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DW5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DX5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DY5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EA5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EB5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EC5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EE5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EF5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EG5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH5" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EI5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EJ5" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK5" s="3" t="inlineStr">
@@ -34412,12 +35092,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="BAK5" s="5" t="inlineStr">
+      <c r="BAK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBB5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBD5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBF5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBH5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBJ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBL5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBN5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBP5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBR5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBT5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBV5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBX5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBZ5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCB5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCC5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCD5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCF5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCG5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCH5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCJ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCK5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCL5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCN5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCO5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCP5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCR5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCS5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCT5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCV5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCW5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCX5" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCZ5" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BDA5" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL5" s="5" t="n"/>
+      <c r="BDB5" s="5" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="4">
       <c r="A6" s="5" t="inlineStr">
@@ -34525,344 +35545,89 @@
           <t>X</t>
         </is>
       </c>
-      <c r="BU6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
       <c r="BV6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BW6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BX6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="BY6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CA6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CB6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CC6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CE6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CF6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CG6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CI6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CJ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CK6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CM6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CN6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CO6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CQ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CR6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CS6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CU6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CV6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CW6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CY6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="CZ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DA6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DC6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DD6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DE6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DG6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DH6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DI6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DK6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DL6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DM6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DO6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DP6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DQ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DS6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DT6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DU6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DW6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DX6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="DY6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EA6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EB6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EC6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EE6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EF6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EG6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH6" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EI6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="EJ6" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK6" s="3" t="inlineStr">
@@ -41105,12 +41870,352 @@
           <t>NON</t>
         </is>
       </c>
-      <c r="BAK6" s="5" t="inlineStr">
+      <c r="BAK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBB6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBD6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBF6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBH6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBJ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBL6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBN6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBP6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBR6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBT6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBV6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBX6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBZ6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCB6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCC6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCD6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCF6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCG6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCH6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCJ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCK6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCL6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCN6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCO6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCP6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCR6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCS6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCT6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCV6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCW6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCX6" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCZ6" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BDA6" s="5" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL6" s="5" t="n"/>
+      <c r="BDB6" s="5" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="4">
       <c r="A7" s="5" t="inlineStr">
@@ -41475,342 +42580,342 @@
       </c>
       <c r="BU7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BV7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BW7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BX7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CA7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CB7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CC7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CE7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CF7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CG7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CI7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CJ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CK7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CM7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CN7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CO7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CQ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CR7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CS7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CU7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CV7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CW7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CY7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CZ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DA7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DC7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DD7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DE7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DG7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DH7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DI7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DK7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DL7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DM7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DO7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DP7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DQ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DS7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DT7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DU7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DW7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DX7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DY7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EA7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EB7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EC7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EE7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EF7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EG7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EI7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EJ7" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK7" s="3" t="inlineStr">
@@ -48053,12 +49158,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="BAK7" s="5" t="inlineStr">
+      <c r="BAK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCB7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCC7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCD7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCF7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCG7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCH7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCJ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCK7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCL7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCN7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCO7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCP7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCR7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCS7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCT7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCV7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCW7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCX7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCZ7" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BDA7" s="5" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL7" s="5" t="n"/>
+      <c r="BDB7" s="5" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="4">
       <c r="A8" s="5" t="inlineStr">
@@ -48338,342 +49783,257 @@
       </c>
       <c r="BU8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BV8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="BW8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BX8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CA8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CB8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CC8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CE8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CF8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CG8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CI8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CJ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CK8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CM8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CN8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CO8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CQ8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CR8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CS8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CU8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CV8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CW8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="CY8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CZ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DA8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DC8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DD8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DE8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DG8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DH8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DI8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DK8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DL8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DM8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DO8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DP8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DQ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DS8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DT8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DU8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="DW8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DX8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DY8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EA8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EB8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EC8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EE8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EF8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EG8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="EI8" s="3" t="inlineStr">
-        <is>
-          <t>NON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EJ8" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK8" s="3" t="inlineStr">
@@ -54916,12 +56276,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="BAK8" s="5" t="inlineStr">
+      <c r="BAK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BAZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBA8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBE8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBI8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBM8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBQ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBU8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BBX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBY8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCB8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCC8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCD8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCF8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCG8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCH8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCJ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCK8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCL8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCN8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCO8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCP8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCR8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCS8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCT8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCV8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCW8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCX8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY8" s="3" t="inlineStr">
+        <is>
+          <t>NON</t>
+        </is>
+      </c>
+      <c r="BCZ8" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BDA8" s="5" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL8" s="5" t="n"/>
+      <c r="BDB8" s="5" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="4">
       <c r="A9" s="5" t="inlineStr">
@@ -55286,342 +56986,342 @@
       </c>
       <c r="BU9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BV9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BW9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BX9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="BZ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CA9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CB9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CC9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CD9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CE9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CF9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CG9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CH9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CI9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CJ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CK9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CL9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CM9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CN9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CO9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CP9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CQ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CR9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CS9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CT9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CU9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CV9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CW9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CX9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CY9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="CZ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DA9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DB9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DC9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DD9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DE9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DF9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DG9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DH9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DI9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DJ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DK9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DL9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DM9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DN9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DO9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DP9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DQ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DR9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DS9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DT9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DU9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DV9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DW9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DX9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DY9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="DZ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EA9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EB9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EC9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="ED9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EE9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EF9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EG9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EH9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EI9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EJ9" s="3" t="inlineStr">
         <is>
-          <t>OUI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="EK9" s="3" t="inlineStr">
@@ -61864,12 +63564,352 @@
           <t>OUI</t>
         </is>
       </c>
-      <c r="BAK9" s="5" t="inlineStr">
+      <c r="BAK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BAZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BBZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCA9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCB9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCC9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCD9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCE9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCF9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCG9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCH9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCI9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCJ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCK9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCL9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCM9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCN9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCO9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCP9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCQ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCR9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCS9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCT9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCU9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCV9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCW9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCX9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCY9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BCZ9" s="3" t="inlineStr">
+        <is>
+          <t>OUI</t>
+        </is>
+      </c>
+      <c r="BDA9" s="5" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="BAL9" s="5" t="n"/>
+      <c r="BDB9" s="5" t="n"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="4"/>
   </sheetData>

--- a/fichiers_xls/test_create_one_column.xlsx
+++ b/fichiers_xls/test_create_one_column.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
